--- a/src/main/java/example/testdata/TestData.xlsx
+++ b/src/main/java/example/testdata/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/156c9964aaeb8782/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\WorkfallPartner\src\main\java\example\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BBECECF-CAC5-4A21-A9C8-9776798B1FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C049F39-2D98-4545-B1AA-A85B12F49FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AC2AAF5A-6ED1-4EA2-B479-9B4626B8F209}"/>
+    <workbookView xWindow="5055" yWindow="4920" windowWidth="17250" windowHeight="8865" xr2:uid="{AC2AAF5A-6ED1-4EA2-B479-9B4626B8F209}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>FirstName</t>
   </si>
@@ -70,13 +70,19 @@
   </si>
   <si>
     <t>vinaypartnerm49@mailinator.com</t>
+  </si>
+  <si>
+    <t>partner</t>
+  </si>
+  <si>
+    <t>vinaym50</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +100,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -116,15 +130,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -437,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA7E27F-0EBA-4CB0-AC3A-978B3982B343}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,10 +488,10 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -486,10 +502,10 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -500,15 +516,29 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{4B62664D-3EEB-4287-A530-0F8232301F8F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>